--- a/biology/Botanique/Oldfieldia_africana/Oldfieldia_africana.xlsx
+++ b/biology/Botanique/Oldfieldia_africana/Oldfieldia_africana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oldfieldia africana Benth. &amp; Hook.f. (connu sous le nom de chêne d'Afrique) est une espèce de plantes à fleurs de la famille des Picrodendraceae et du genre Oldfieldia. C'est un arbre présent en Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand arbre pouvant atteindre 40 m de hauteur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand arbre pouvant atteindre 40 m de hauteur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'abord connue en Sierra Leone et en Côte d'Ivoire, l'espèce est également présente au Cameroun, où Mildbraed découvrit notamment un spécimen imposant, à large couronne, le 10 janvier 1911, aux environs de Moloundou[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'abord connue en Sierra Leone et en Côte d'Ivoire, l'espèce est également présente au Cameroun, où Mildbraed découvrit notamment un spécimen imposant, à large couronne, le 10 janvier 1911, aux environs de Moloundou.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de Oldfieldia africana est sans doute l'un des plus anciens importés en Europe depuis l'Afrique de l'Ouest. Utilisé dès le XVIIIe siècle en Grande-Bretagne pour la construction navale, en remplacement du chêne, il fait toujours l'objet d'un commerce international, mais en moindres quantités[2].
-L'écorce connaît de multiples usages, notamment médicinaux[4]. 
-L'arbre lui-même joue un rôle significatif lors de certaines cérémonies rituelles[4]. Les coques de ses fruits, réunies dans une corbeille, sont utilisées comme instrument de divination chez les Banen du Cameroun[5]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de Oldfieldia africana est sans doute l'un des plus anciens importés en Europe depuis l'Afrique de l'Ouest. Utilisé dès le XVIIIe siècle en Grande-Bretagne pour la construction navale, en remplacement du chêne, il fait toujours l'objet d'un commerce international, mais en moindres quantités.
+L'écorce connaît de multiples usages, notamment médicinaux. 
+L'arbre lui-même joue un rôle significatif lors de certaines cérémonies rituelles. Les coques de ses fruits, réunies dans une corbeille, sont utilisées comme instrument de divination chez les Banen du Cameroun. 
 </t>
         </is>
       </c>
